--- a/biology/Zoologie/Gobemouche_ardoisé/Gobemouche_ardoisé.xlsx
+++ b/biology/Zoologie/Gobemouche_ardoisé/Gobemouche_ardoisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_ardois%C3%A9</t>
+          <t>Gobemouche_ardoisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscicapa comitata
 Le Gobemouche ardoisé (Muscicapa comitata) est une espèce d'oiseaux de la famille des Muscicapidae. Il est parfois référencé comme Bradornis comitatus (par exemple parmi les espèces répertoriées de la forêt de Farangbaia :https://dopa-explorer.jrc.ec.europa.eu/wdpa/29980)
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_ardois%C3%A9</t>
+          <t>Gobemouche_ardoisé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu en Afrique équatoriale.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobemouche_ardois%C3%A9</t>
+          <t>Gobemouche_ardoisé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est la forêt tropicale humide des basses terres.
 </t>
